--- a/Whole Foods Stores.xlsx
+++ b/Whole Foods Stores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd88a667c59dac1/Documents/GitHub/Whole-Foods-Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7BE1F1-DECB-4035-8289-A0C853639BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{2C7BE1F1-DECB-4035-8289-A0C853639BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2620D82-FEC2-4477-A0F7-0D827B105BDD}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF55EDBE-3F22-4D68-AFB8-C4CBAA839DF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stores" sheetId="2" r:id="rId1"/>
+    <sheet name="ADDRESSES" sheetId="3" r:id="rId1"/>
+    <sheet name="Stores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,200 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ANNP</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3AD2AC32-C267-4BFE-8AAF-17C1D18DB77E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Code20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{21C0DE21-C217-4C63-8323-B8980E59020C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Code20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{47FD4EF0-94B8-444C-9A91-73F18522CAF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Code10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{55CECED8-F99F-480C-9CBA-339DA7EFD9C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{FD08D61B-6CB1-42D7-A4E1-1A319832776D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3397F755-7A41-46E7-A97A-6BA3DB2C612A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text100</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{DFC174AB-ABFF-4BCD-BA40-12A6BA301990}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{67153F4B-44A6-444F-9F0A-C6B448FC147D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0EA3699D-8C0F-460E-B93C-2C01889C9A51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Code20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{F606980D-E582-4833-991F-9B8DF1F656F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{3D518655-EF98-4E48-A259-C2D3FD1F5BA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9775A055-936C-4007-83A7-B4C2CBA5DF28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1A7F2E9B-A715-4621-9C6F-3BBE3D54F11D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text80</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="628">
   <si>
     <t>10005</t>
   </si>
@@ -1038,13 +1231,895 @@
   </si>
   <si>
     <t>Customer ID</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sell-to Customer No.</t>
+  </si>
+  <si>
+    <t>Bill-to Customer No.</t>
+  </si>
+  <si>
+    <t>Ship-to Code</t>
+  </si>
+  <si>
+    <t>Sell-to Customer Name</t>
+  </si>
+  <si>
+    <t>Sell-to Customer Name 2</t>
+  </si>
+  <si>
+    <t>Sell-to Address</t>
+  </si>
+  <si>
+    <t>Sell-to Address 2</t>
+  </si>
+  <si>
+    <t>Sell-to City</t>
+  </si>
+  <si>
+    <t>Sell-to ZIP Code</t>
+  </si>
+  <si>
+    <t>Delivery Info</t>
+  </si>
+  <si>
+    <t>Delivery Exception</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Store Delivery Location</t>
+  </si>
+  <si>
+    <t>2226160</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS UPPER WESTSIDE UWS</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS CORPORAT</t>
+  </si>
+  <si>
+    <t>2226160-1</t>
+  </si>
+  <si>
+    <t>808 COLUMBUS AVE</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>09:00 AM - 06:00 PM</t>
+  </si>
+  <si>
+    <t>CLOSED MONDAY - NO LUNCH</t>
+  </si>
+  <si>
+    <t>NYC N FRIDAY</t>
+  </si>
+  <si>
+    <t>DOCK 99TH &amp; COLUMBUS</t>
+  </si>
+  <si>
+    <t>2261244</t>
+  </si>
+  <si>
+    <t>2261244-1</t>
+  </si>
+  <si>
+    <t>300 BERGEN MALL</t>
+  </si>
+  <si>
+    <t>Paramus</t>
+  </si>
+  <si>
+    <t>03:00 AM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>BERGEN TUESDAY</t>
+  </si>
+  <si>
+    <t>TUNNEL</t>
+  </si>
+  <si>
+    <t>2276858</t>
+  </si>
+  <si>
+    <t>2276858-1</t>
+  </si>
+  <si>
+    <t>399 POST RD W</t>
+  </si>
+  <si>
+    <t>Westport</t>
+  </si>
+  <si>
+    <t>08:00 AM - 04:00 PM</t>
+  </si>
+  <si>
+    <t>CT THURSDAY</t>
+  </si>
+  <si>
+    <t>2492595</t>
+  </si>
+  <si>
+    <t>2492595-1</t>
+  </si>
+  <si>
+    <t>#10774</t>
+  </si>
+  <si>
+    <t>Woodcliff Lake</t>
+  </si>
+  <si>
+    <t>07677-</t>
+  </si>
+  <si>
+    <t>06:00 AM - 01:30 PM</t>
+  </si>
+  <si>
+    <t>ROCKLAND MONDAY</t>
+  </si>
+  <si>
+    <t>2862777</t>
+  </si>
+  <si>
+    <t>2862777-1</t>
+  </si>
+  <si>
+    <t>Parsippany</t>
+  </si>
+  <si>
+    <t>07054-</t>
+  </si>
+  <si>
+    <t>DENVILLE MONDAY</t>
+  </si>
+  <si>
+    <t>2881300</t>
+  </si>
+  <si>
+    <t>2881300-1</t>
+  </si>
+  <si>
+    <t>110 BLOOMINGDALE ROAD</t>
+  </si>
+  <si>
+    <t>EXIT 8 OFF 287</t>
+  </si>
+  <si>
+    <t>White Plains</t>
+  </si>
+  <si>
+    <t>08:00 AM - 05:00 PM</t>
+  </si>
+  <si>
+    <t>WESTCHESTER NORTH MONDAY</t>
+  </si>
+  <si>
+    <t>ELEVATOR</t>
+  </si>
+  <si>
+    <t>2901010</t>
+  </si>
+  <si>
+    <t>2901010-1</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>04:00 AM - 04:00 PM</t>
+  </si>
+  <si>
+    <t>BROOKLYN FRIDAY</t>
+  </si>
+  <si>
+    <t>3006080</t>
+  </si>
+  <si>
+    <t>3006080-1</t>
+  </si>
+  <si>
+    <t>Weehawken</t>
+  </si>
+  <si>
+    <t>07086-</t>
+  </si>
+  <si>
+    <t>04:00 AM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>CLOSTER MONDAY</t>
+  </si>
+  <si>
+    <t>3199544</t>
+  </si>
+  <si>
+    <t>3199544-1</t>
+  </si>
+  <si>
+    <t>350 GRASMERE AVE</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>06824-</t>
+  </si>
+  <si>
+    <t>06:00 AM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>3405130</t>
+  </si>
+  <si>
+    <t>3405130-1</t>
+  </si>
+  <si>
+    <t>Chappaqua</t>
+  </si>
+  <si>
+    <t>09:00 AM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>3496555</t>
+  </si>
+  <si>
+    <t>3496555-1</t>
+  </si>
+  <si>
+    <t>270 GREENWICH STREET</t>
+  </si>
+  <si>
+    <t>NYC FRIDAY</t>
+  </si>
+  <si>
+    <t>MURRAY STREET</t>
+  </si>
+  <si>
+    <t>3587700</t>
+  </si>
+  <si>
+    <t>3587700-1</t>
+  </si>
+  <si>
+    <t>100 W 125TH STREET</t>
+  </si>
+  <si>
+    <t>06:00 AM - 06:00 PM</t>
+  </si>
+  <si>
+    <t>3593400</t>
+  </si>
+  <si>
+    <t>3593400-1</t>
+  </si>
+  <si>
+    <t>1933 STATE RD 35</t>
+  </si>
+  <si>
+    <t>WALL TOWNSHIP</t>
+  </si>
+  <si>
+    <t>07719-3502</t>
+  </si>
+  <si>
+    <t>BELMAR THURSDAY</t>
+  </si>
+  <si>
+    <t>3663616</t>
+  </si>
+  <si>
+    <t>3663616-1</t>
+  </si>
+  <si>
+    <t>5214 SUNNRISE HWY</t>
+  </si>
+  <si>
+    <t>Massapequa Park</t>
+  </si>
+  <si>
+    <t>11762</t>
+  </si>
+  <si>
+    <t>LI FRIDAY</t>
+  </si>
+  <si>
+    <t>3679099</t>
+  </si>
+  <si>
+    <t>3679099-1</t>
+  </si>
+  <si>
+    <t>33 VERVALEN ST.</t>
+  </si>
+  <si>
+    <t>NO DEL  11:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>Closter</t>
+  </si>
+  <si>
+    <t>07:00 AM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>3788090</t>
+  </si>
+  <si>
+    <t>3788090-1</t>
+  </si>
+  <si>
+    <t>1 RIDGE HILL BLVD</t>
+  </si>
+  <si>
+    <t>Yonkers</t>
+  </si>
+  <si>
+    <t>10710</t>
+  </si>
+  <si>
+    <t>06:00 AM - 01:00 PM</t>
+  </si>
+  <si>
+    <t>WESTCHESTER SOUTH MONDAY</t>
+  </si>
+  <si>
+    <t>3811010</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS CLARK CLA</t>
+  </si>
+  <si>
+    <t>3811010-1</t>
+  </si>
+  <si>
+    <t>1255 RARITAN RD</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>07066-</t>
+  </si>
+  <si>
+    <t>WESTFIELD WEDNESDAY</t>
+  </si>
+  <si>
+    <t>3851900</t>
+  </si>
+  <si>
+    <t>3851900-1</t>
+  </si>
+  <si>
+    <t>Morristown</t>
+  </si>
+  <si>
+    <t>07960-</t>
+  </si>
+  <si>
+    <t>DENVILLE TUESDAY</t>
+  </si>
+  <si>
+    <t>3873535</t>
+  </si>
+  <si>
+    <t>3873535-1</t>
+  </si>
+  <si>
+    <t>11232</t>
+  </si>
+  <si>
+    <t>4201320</t>
+  </si>
+  <si>
+    <t>4201320-1</t>
+  </si>
+  <si>
+    <t>95 EAST HOUSTON ST</t>
+  </si>
+  <si>
+    <t>RECEVING  CHRYSTIE ST S. OF HOUSTON</t>
+  </si>
+  <si>
+    <t>4971222</t>
+  </si>
+  <si>
+    <t>4971222-1</t>
+  </si>
+  <si>
+    <t>226 EAST 57TH ST</t>
+  </si>
+  <si>
+    <t>NYC WEDNESDAY</t>
+  </si>
+  <si>
+    <t>RECEIVING ON 56TH ST</t>
+  </si>
+  <si>
+    <t>5156180</t>
+  </si>
+  <si>
+    <t>5156180-1</t>
+  </si>
+  <si>
+    <t>Metuchen</t>
+  </si>
+  <si>
+    <t>08840-</t>
+  </si>
+  <si>
+    <t>NEW BRUNSWICK WEDNESDAY</t>
+  </si>
+  <si>
+    <t>5401104</t>
+  </si>
+  <si>
+    <t>5401104-1</t>
+  </si>
+  <si>
+    <t>450 WEST 33RD ST</t>
+  </si>
+  <si>
+    <t>5403040</t>
+  </si>
+  <si>
+    <t>5403040-1</t>
+  </si>
+  <si>
+    <t>Garden City</t>
+  </si>
+  <si>
+    <t>04:00 AM - 03:30 PM</t>
+  </si>
+  <si>
+    <t>5841960</t>
+  </si>
+  <si>
+    <t>5841960-1</t>
+  </si>
+  <si>
+    <t>Bound Brook</t>
+  </si>
+  <si>
+    <t>08805-</t>
+  </si>
+  <si>
+    <t>07:00 AM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>BRIDGEWATER WEDNESDAY</t>
+  </si>
+  <si>
+    <t>5871470</t>
+  </si>
+  <si>
+    <t>5871470-1</t>
+  </si>
+  <si>
+    <t>580 VALLEY RD</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>07470-</t>
+  </si>
+  <si>
+    <t>08:00 AM - 09:00 PM</t>
+  </si>
+  <si>
+    <t>5881466</t>
+  </si>
+  <si>
+    <t>5881466-1</t>
+  </si>
+  <si>
+    <t>120 NEW MORICHES RD</t>
+  </si>
+  <si>
+    <t>Lake Grove</t>
+  </si>
+  <si>
+    <t>MUST GO THROUGH BACK</t>
+  </si>
+  <si>
+    <t>6610631</t>
+  </si>
+  <si>
+    <t>6610631-1</t>
+  </si>
+  <si>
+    <t>96 EAST PUTNAM AVE</t>
+  </si>
+  <si>
+    <t>Greenwich</t>
+  </si>
+  <si>
+    <t>04:00 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>CT GREENWICH THURSDAY</t>
+  </si>
+  <si>
+    <t>ASK FOR DAIRY IF RECEIVING IS CLOSED</t>
+  </si>
+  <si>
+    <t>6620577</t>
+  </si>
+  <si>
+    <t>6620577-1</t>
+  </si>
+  <si>
+    <t>150 LEDGE RD</t>
+  </si>
+  <si>
+    <t>Darien</t>
+  </si>
+  <si>
+    <t>CT DARIEN THURSDAY</t>
+  </si>
+  <si>
+    <t>6693196</t>
+  </si>
+  <si>
+    <t>6693196-1</t>
+  </si>
+  <si>
+    <t>235 PROSPECT AVE</t>
+  </si>
+  <si>
+    <t>WEST ORANGE PLAZA</t>
+  </si>
+  <si>
+    <t>West Orange</t>
+  </si>
+  <si>
+    <t>05:30 AM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>MONTCLAIR TUESDAY</t>
+  </si>
+  <si>
+    <t>6700383</t>
+  </si>
+  <si>
+    <t>6700383-1</t>
+  </si>
+  <si>
+    <t>44 GODWIN AVE</t>
+  </si>
+  <si>
+    <t>Ridgewood</t>
+  </si>
+  <si>
+    <t>07450-</t>
+  </si>
+  <si>
+    <t>RIDGEWOOD TUESDAY</t>
+  </si>
+  <si>
+    <t>6700580</t>
+  </si>
+  <si>
+    <t>6700580-1</t>
+  </si>
+  <si>
+    <t>120 VETERANS MEMORIAL HIGHWAY</t>
+  </si>
+  <si>
+    <t>Commack</t>
+  </si>
+  <si>
+    <t>08:00 AM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>6735388</t>
+  </si>
+  <si>
+    <t>6735388-1</t>
+  </si>
+  <si>
+    <t>40 E 14TH STREET</t>
+  </si>
+  <si>
+    <t>(DOCK 13TH BTWN UNIVERSTY/BWAY</t>
+  </si>
+  <si>
+    <t>6881455</t>
+  </si>
+  <si>
+    <t>6881455-1</t>
+  </si>
+  <si>
+    <t>2245 SPRINGFIELD AVE</t>
+  </si>
+  <si>
+    <t>Vauxhall</t>
+  </si>
+  <si>
+    <t>07088-</t>
+  </si>
+  <si>
+    <t>05:00 AM - 02:00 PM</t>
+  </si>
+  <si>
+    <t>7081985</t>
+  </si>
+  <si>
+    <t>7081985-1</t>
+  </si>
+  <si>
+    <t>575 BOSTON POST RD</t>
+  </si>
+  <si>
+    <t>Port Chester</t>
+  </si>
+  <si>
+    <t>06:30 AM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>7285700</t>
+  </si>
+  <si>
+    <t>7285700-1</t>
+  </si>
+  <si>
+    <t>7300599</t>
+  </si>
+  <si>
+    <t>7300599-1</t>
+  </si>
+  <si>
+    <t>Danbury</t>
+  </si>
+  <si>
+    <t>06810-</t>
+  </si>
+  <si>
+    <t>CT DANBURY MONDAY</t>
+  </si>
+  <si>
+    <t>7342321</t>
+  </si>
+  <si>
+    <t>7342321-1</t>
+  </si>
+  <si>
+    <t>ENTRANCE IS ON NORTH 4TH ST.</t>
+  </si>
+  <si>
+    <t>06:00 AM - 02:30 PM</t>
+  </si>
+  <si>
+    <t>7465110</t>
+  </si>
+  <si>
+    <t>7465110-1</t>
+  </si>
+  <si>
+    <t>701 BLOOMFIELD AVE</t>
+  </si>
+  <si>
+    <t>Montclair</t>
+  </si>
+  <si>
+    <t>05:00 AM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>7555080</t>
+  </si>
+  <si>
+    <t>7555080-1</t>
+  </si>
+  <si>
+    <t>633 BROAD STREET</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>07102-</t>
+  </si>
+  <si>
+    <t>NEWARK FRIDAY</t>
+  </si>
+  <si>
+    <t>7581688</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS MIDDLETOWN MID</t>
+  </si>
+  <si>
+    <t>7581688-1</t>
+  </si>
+  <si>
+    <t>471 RT 35 NORTH</t>
+  </si>
+  <si>
+    <t>Red Bank</t>
+  </si>
+  <si>
+    <t>05:30 AM - 03:30 PM</t>
+  </si>
+  <si>
+    <t>RED BANK THURSDAY</t>
+  </si>
+  <si>
+    <t>7792848</t>
+  </si>
+  <si>
+    <t>7792848-1</t>
+  </si>
+  <si>
+    <t>7798229</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS ONE WALL STREET</t>
+  </si>
+  <si>
+    <t>7798229-1</t>
+  </si>
+  <si>
+    <t>7925900</t>
+  </si>
+  <si>
+    <t>7925900-1</t>
+  </si>
+  <si>
+    <t>Marlboro</t>
+  </si>
+  <si>
+    <t>07726-</t>
+  </si>
+  <si>
+    <t>07:00 AM - 02:30 PM</t>
+  </si>
+  <si>
+    <t>MARLBORO THURSDAY</t>
+  </si>
+  <si>
+    <t>8228444</t>
+  </si>
+  <si>
+    <t>8228444-1</t>
+  </si>
+  <si>
+    <t>222 MAIN ST</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>07940-</t>
+  </si>
+  <si>
+    <t>RIGHT SIDE BACK</t>
+  </si>
+  <si>
+    <t>8239600</t>
+  </si>
+  <si>
+    <t>8239600-1</t>
+  </si>
+  <si>
+    <t>TIME WARNER CENTER CONCOURSE</t>
+  </si>
+  <si>
+    <t>BROADWAY BTWN 58TH AND 60TH ST</t>
+  </si>
+  <si>
+    <t>06:00 AM - 09:00 PM</t>
+  </si>
+  <si>
+    <t>C1 DOCK 60TH ST CORNER OF 8TH AVE,</t>
+  </si>
+  <si>
+    <t>8698900</t>
+  </si>
+  <si>
+    <t>8698900-1</t>
+  </si>
+  <si>
+    <t>2101 NORTHERN BLVD</t>
+  </si>
+  <si>
+    <t>Manhasset</t>
+  </si>
+  <si>
+    <t>8740883</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS MILFORD MIL</t>
+  </si>
+  <si>
+    <t>8740883-1</t>
+  </si>
+  <si>
+    <t>1686 BOSTON POST RD</t>
+  </si>
+  <si>
+    <t>Milford</t>
+  </si>
+  <si>
+    <t>8913888</t>
+  </si>
+  <si>
+    <t>8913888-1</t>
+  </si>
+  <si>
+    <t>10:00 AM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>9073622</t>
+  </si>
+  <si>
+    <t>WHOLE FOODS BROOKLYN</t>
+  </si>
+  <si>
+    <t>9073622-1</t>
+  </si>
+  <si>
+    <t>214 3RD STREET</t>
+  </si>
+  <si>
+    <t>11215</t>
+  </si>
+  <si>
+    <t>9245969</t>
+  </si>
+  <si>
+    <t>9245969-1</t>
+  </si>
+  <si>
+    <t>250 7TH AVE</t>
+  </si>
+  <si>
+    <t>ON 25TH ST DOCK</t>
+  </si>
+  <si>
+    <t>9321733</t>
+  </si>
+  <si>
+    <t>9321733-1</t>
+  </si>
+  <si>
+    <t>429 N BROADWAY</t>
+  </si>
+  <si>
+    <t>Jericho</t>
+  </si>
+  <si>
+    <t>06:00 AM - 04:00 PM</t>
+  </si>
+  <si>
+    <t>9414000</t>
+  </si>
+  <si>
+    <t>9414000-1</t>
+  </si>
+  <si>
+    <t>905 RIVER RD</t>
+  </si>
+  <si>
+    <t>Edgewater</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,16 +2140,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1093,11 +2201,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1111,9 +2257,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{21FEE6B8-6D75-4957-BA15-B2516909219F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1424,10 +2581,2454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5950F325-6B64-4EFD-B5C1-84E3E6444EEE}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="34.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E86CDC-58DE-4E63-8C75-CFEF5D3F0DC1}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
